--- a/data/colonial_transit_time.xlsx
+++ b/data/colonial_transit_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://statoilsrm-my.sharepoint.com/personal/siwz_equinor_com/Documents/personal/projects/colonial_forecast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3CF90F87B77DDAD885216DCE485575B60C5CD600" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA03DDDE-D85E-4544-A937-B32D61133A9E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F5E14C8ABA8D1CCFDF906E7108727E720D5CF68E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8105A7F-83BD-4D81-8CF3-F799E72D808E}"/>
   <bookViews>
-    <workbookView xWindow="38475" yWindow="-21840" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -431,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2738,9 +2736,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2775,2263 +2775,1378 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45526</v>
+        <v>45672</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>8.2916666666666661</v>
+        <v>7.708333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45530</v>
+        <v>45678</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45533</v>
+        <v>45683</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>8.75</v>
+        <v>8.2083333333333339</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45539</v>
+        <v>45690</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>7.25</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45543</v>
+        <v>45693</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
       <c r="G6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>18</v>
       </c>
       <c r="I6">
-        <v>8.9583333333333339</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45550</v>
+        <v>45698</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>8.375</v>
+        <v>3.208333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45553</v>
+        <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <v>7.625</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45559</v>
+        <v>45706</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>8.625</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45565</v>
+        <v>45711</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
       <c r="G10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10">
-        <v>8.2083333333333339</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45571</v>
+        <v>45716</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>4.958333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45575</v>
+        <v>45721</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I12">
-        <v>7.625</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45579</v>
+        <v>45726</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>8.3333333333333339</v>
+        <v>2.791666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45585</v>
+        <v>45732</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>8.25</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45592</v>
+        <v>45734</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>7.416666666666667</v>
+        <v>10.45833333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45594</v>
+        <v>45739</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>23</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>7.958333333333333</v>
+        <v>5.958333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45599</v>
+        <v>45744</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17">
-        <v>8.5</v>
+        <v>9.4583333333333339</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45606</v>
+        <v>45749</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>19</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7.791666666666667</v>
+        <v>4.791666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45609</v>
+        <v>45754</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
       <c r="I19">
-        <v>9</v>
+        <v>8.2083333333333339</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45614</v>
+        <v>45757</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <v>8.6666666666666661</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45620</v>
+        <v>45767</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>17</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>7.708333333333333</v>
+        <v>4.708333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45768</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>7.833333333333333</v>
+        <v>6.041666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45629</v>
+        <v>45774</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I23">
-        <v>7.583333333333333</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45634</v>
+        <v>45781</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I24">
-        <v>7.666666666666667</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45638</v>
+        <v>45783</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>7.666666666666667</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45644</v>
+        <v>45788</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I26">
-        <v>7.208333333333333</v>
+        <v>7.416666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45651</v>
+        <v>45795</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
         <v>7</v>
       </c>
-      <c r="F27">
-        <v>22</v>
-      </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
       <c r="I27">
-        <v>7.916666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45655</v>
+        <v>45799</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>7.458333333333333</v>
+        <v>5.041666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45657</v>
+        <v>45803</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>14</v>
-      </c>
       <c r="G29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>7.583333333333333</v>
+        <v>2.041666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45662</v>
+        <v>45809</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I30">
-        <v>7.416666666666667</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45665</v>
+        <v>45816</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>7</v>
-      </c>
-      <c r="H31">
-        <v>22</v>
-      </c>
       <c r="I31">
-        <v>7.625</v>
+        <v>6.041666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45672</v>
+        <v>45819</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>22</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
       <c r="H32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>8.9166666666666661</v>
+        <v>4.208333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45678</v>
+        <v>45824</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>12</v>
       </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
       <c r="I33">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45683</v>
+        <v>45830</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34">
-        <v>7.416666666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45690</v>
+        <v>45834</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
       <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35">
-        <v>16</v>
-      </c>
       <c r="I35">
-        <v>7.541666666666667</v>
+        <v>4.291666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45693</v>
+        <v>45839</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>7.708333333333333</v>
+        <v>1.458333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45698</v>
+        <v>45844</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>17</v>
-      </c>
-      <c r="I37">
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45704</v>
+        <v>45851</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>7.833333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45706</v>
+        <v>45855</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>8.1666666666666661</v>
+        <v>6.583333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45711</v>
+        <v>45859</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>18</v>
       </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <v>14</v>
-      </c>
       <c r="I40">
-        <v>7.75</v>
+        <v>6.458333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45716</v>
+        <v>45865</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
         <v>6</v>
       </c>
-      <c r="H41">
-        <v>21</v>
-      </c>
       <c r="I41">
-        <v>7.625</v>
+        <v>6.958333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45721</v>
+        <v>45872</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>7.75</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45726</v>
+        <v>45875</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>11</v>
       </c>
       <c r="I43">
-        <v>7.833333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45732</v>
+        <v>45879</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>9.4583333333333339</v>
+        <v>5.041666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45734</v>
+        <v>45886</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
         <v>16</v>
       </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
       <c r="G45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>9.125</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45739</v>
+        <v>45893</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I46">
-        <v>8.3333333333333339</v>
+        <v>4.458333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45744</v>
+        <v>45896</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>8.375</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45749</v>
+        <v>45901</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48">
-        <v>8.2083333333333339</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45754</v>
+        <v>45902</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I49">
-        <v>8.2916666666666661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>45757</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <v>21</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>17</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>8.7083333333333339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>45767</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>22</v>
-      </c>
-      <c r="E51">
-        <v>9</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>7</v>
-      </c>
-      <c r="H51">
-        <v>24</v>
-      </c>
-      <c r="I51">
-        <v>9.4583333333333339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>45768</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>23</v>
-      </c>
-      <c r="E52">
-        <v>9</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>17</v>
-      </c>
-      <c r="I52">
-        <v>9.0833333333333339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>45774</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>24</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="I53">
-        <v>9.0416666666666661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>45781</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="E54">
-        <v>9</v>
-      </c>
-      <c r="F54">
-        <v>23</v>
-      </c>
-      <c r="G54">
-        <v>9</v>
-      </c>
-      <c r="H54">
-        <v>6</v>
-      </c>
-      <c r="I54">
-        <v>9.9583333333333339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>45783</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>26</v>
-      </c>
-      <c r="E55">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>16</v>
-      </c>
-      <c r="I55">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>45788</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>27</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56">
-        <v>15</v>
-      </c>
-      <c r="G56">
-        <v>9</v>
-      </c>
-      <c r="H56">
-        <v>18</v>
-      </c>
-      <c r="I56">
-        <v>10.625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>45795</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>28</v>
-      </c>
-      <c r="E57">
-        <v>9</v>
-      </c>
-      <c r="F57">
-        <v>8</v>
-      </c>
-      <c r="G57">
-        <v>11</v>
-      </c>
-      <c r="H57">
-        <v>14</v>
-      </c>
-      <c r="I57">
-        <v>9.3333333333333339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>45799</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>29</v>
-      </c>
-      <c r="E58">
-        <v>9</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-      <c r="G58">
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>16</v>
-      </c>
-      <c r="I58">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>45803</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>30</v>
-      </c>
-      <c r="E59">
-        <v>9</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
-      <c r="I59">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>31</v>
-      </c>
-      <c r="E60">
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="G60">
-        <v>11</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60">
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>45816</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>32</v>
-      </c>
-      <c r="E61">
-        <v>8</v>
-      </c>
-      <c r="F61">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>8.5833333333333339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>45819</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <v>33</v>
-      </c>
-      <c r="E62">
-        <v>9</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-      <c r="G62">
-        <v>7</v>
-      </c>
-      <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62">
-        <v>9.1666666666666661</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>45824</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>34</v>
-      </c>
-      <c r="E63">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>18</v>
-      </c>
-      <c r="G63">
-        <v>9</v>
-      </c>
-      <c r="H63">
-        <v>23</v>
-      </c>
-      <c r="I63">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>45830</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>35</v>
-      </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64">
-        <v>11</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="I64">
-        <v>9.125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>45834</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>36</v>
-      </c>
-      <c r="E65">
-        <v>8</v>
-      </c>
-      <c r="F65">
-        <v>14</v>
-      </c>
-      <c r="G65">
-        <v>9</v>
-      </c>
-      <c r="H65">
-        <v>18</v>
-      </c>
-      <c r="I65">
-        <v>8.5833333333333339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66">
-        <v>37</v>
-      </c>
-      <c r="E66">
-        <v>9</v>
-      </c>
-      <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="H66">
-        <v>8</v>
-      </c>
-      <c r="I66">
-        <v>9.2916666666666661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>45844</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>38</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <v>23</v>
-      </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>18</v>
-      </c>
-      <c r="I67">
-        <v>7.958333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>45851</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>39</v>
-      </c>
-      <c r="E68">
-        <v>9</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>10</v>
-      </c>
-      <c r="H68">
-        <v>4</v>
-      </c>
-      <c r="I68">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45855</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>40</v>
-      </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-      <c r="G69">
-        <v>8</v>
-      </c>
-      <c r="H69">
-        <v>22</v>
-      </c>
-      <c r="I69">
-        <v>8.8333333333333339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>41</v>
-      </c>
-      <c r="E70">
-        <v>9</v>
-      </c>
-      <c r="F70">
-        <v>16</v>
-      </c>
-      <c r="G70">
-        <v>9</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="I70">
-        <v>9.6666666666666661</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>45865</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>42</v>
-      </c>
-      <c r="E71">
-        <v>9</v>
-      </c>
-      <c r="F71">
-        <v>8</v>
-      </c>
-      <c r="G71">
-        <v>10</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>9.3333333333333339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>45872</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>43</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>11</v>
-      </c>
-      <c r="I72">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>44</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>11</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>45</v>
-      </c>
-      <c r="E74">
-        <v>5</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>5.041666666666667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>45886</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>46</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75">
-        <v>16</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75">
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>45893</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>47</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>11</v>
-      </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="H76">
-        <v>9</v>
-      </c>
-      <c r="I76">
-        <v>4.458333333333333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>45896</v>
-      </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>48</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>14</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>4</v>
-      </c>
-      <c r="I77">
-        <v>4.583333333333333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>49</v>
-      </c>
-      <c r="E78">
-        <v>5</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>21</v>
-      </c>
-      <c r="I78">
-        <v>5.416666666666667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>45902</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>50</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>23</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>19</v>
-      </c>
-      <c r="I79">
         <v>3.958333333333333</v>
       </c>
     </row>
@@ -5044,12 +4159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
